--- a/Game/Resource/Enum/ObjectType.xlsx
+++ b/Game/Resource/Enum/ObjectType.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47442F8-4EED-4F40-926E-C3882C2D693A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158B3386-11DA-4DFC-9271-86B19D70C7DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,7 +355,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -373,7 +373,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Game/Resource/Enum/ObjectType.xlsx
+++ b/Game/Resource/Enum/ObjectType.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158B3386-11DA-4DFC-9271-86B19D70C7DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AD7F1E-7553-4935-B4F3-737BCE6A16A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Player</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -352,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -376,6 +380,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Game/Resource/Enum/ObjectType.xlsx
+++ b/Game/Resource/Enum/ObjectType.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AD7F1E-7553-4935-B4F3-737BCE6A16A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1982D28E-0B5C-48A4-B4F7-5884DA79D695}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Player</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,10 @@
   </si>
   <si>
     <t>Card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -356,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -388,6 +392,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Game/Resource/Enum/ObjectType.xlsx
+++ b/Game/Resource/Enum/ObjectType.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1982D28E-0B5C-48A4-B4F7-5884DA79D695}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8517D7A3-E617-4205-AD78-C87769E82C24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Player</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,10 @@
   </si>
   <si>
     <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostItem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -400,6 +404,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
